--- a/Pairs.xlsx
+++ b/Pairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\黄俊贤\Desktop\stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chancheukhang/Downloads/CUHK/FINA4380/Project/FINA4380/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593B7B26-1C2F-4B90-B65B-623207E6031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6583A-8D02-204D-AD79-3C154D70E7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,13 +75,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,13 +392,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1007"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43832</v>
       </c>
@@ -456,7 +459,7 @@
         <v>32.020000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43833</v>
       </c>
@@ -485,7 +488,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43836</v>
       </c>
@@ -514,7 +517,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43837</v>
       </c>
@@ -543,7 +546,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43838</v>
       </c>
@@ -572,7 +575,7 @@
         <v>31.48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43839</v>
       </c>
@@ -601,7 +604,7 @@
         <v>31.77</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43840</v>
       </c>
@@ -630,7 +633,7 @@
         <v>31.54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43843</v>
       </c>
@@ -659,7 +662,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43844</v>
       </c>
@@ -688,7 +691,7 @@
         <v>31.43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43845</v>
       </c>
@@ -717,7 +720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43846</v>
       </c>
@@ -746,7 +749,7 @@
         <v>32.94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43847</v>
       </c>
@@ -775,7 +778,7 @@
         <v>33.28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43851</v>
       </c>
@@ -804,7 +807,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43852</v>
       </c>
@@ -833,7 +836,7 @@
         <v>34.28</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43853</v>
       </c>
@@ -862,7 +865,7 @@
         <v>34.450000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43854</v>
       </c>
@@ -891,7 +894,7 @@
         <v>33.72</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43857</v>
       </c>
@@ -920,7 +923,7 @@
         <v>32.909999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43858</v>
       </c>
@@ -949,7 +952,7 @@
         <v>33.159999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43859</v>
       </c>
@@ -978,7 +981,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43860</v>
       </c>
@@ -1007,7 +1010,7 @@
         <v>32.65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43861</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>32.479999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43864</v>
       </c>
@@ -1065,7 +1068,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43865</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43866</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>32.659999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43867</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43868</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>32.869999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43871</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43872</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43873</v>
       </c>
@@ -1268,7 +1271,7 @@
         <v>33.69</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43874</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>32.94</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43875</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>32.130000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43879</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43880</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43881</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43882</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>31.27</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43885</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43886</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43887</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43888</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43889</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>28.46</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43892</v>
       </c>
@@ -1616,7 +1619,7 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43893</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43894</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43895</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>28.62</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43896</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>26.37</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43899</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43900</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>23.49</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43901</v>
       </c>
@@ -1819,7 +1822,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43902</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43903</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43906</v>
       </c>
@@ -1906,7 +1909,7 @@
         <v>18.62</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43907</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>18.329999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43908</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>17.079999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43909</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43910</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>19.39</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43913</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>18.21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43914</v>
       </c>
@@ -2080,7 +2083,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43915</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>22.44</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43916</v>
       </c>
@@ -2138,7 +2141,7 @@
         <v>23.73</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43917</v>
       </c>
@@ -2167,7 +2170,7 @@
         <v>22.74</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43920</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>22.515000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43921</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>21.65</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43922</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>19.71</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43923</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>20.190000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43924</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43927</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>21.82</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43928</v>
       </c>
@@ -2370,7 +2373,7 @@
         <v>22.22</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43929</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>22.97</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43930</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43934</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>22.81</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43935</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>24.01</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43936</v>
       </c>
@@ -2515,7 +2518,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43937</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43938</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>22.95</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43941</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>21.87</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43942</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43943</v>
       </c>
@@ -2660,7 +2663,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43944</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43945</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>22.58</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43948</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>24.44</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43949</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>24.81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43950</v>
       </c>
@@ -2805,7 +2808,7 @@
         <v>25.96</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43951</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>23.44</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43952</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43955</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>21.98</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43956</v>
       </c>
@@ -2921,7 +2924,7 @@
         <v>23.19</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43957</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>23.06</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43958</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43959</v>
       </c>
@@ -3008,7 +3011,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43962</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43963</v>
       </c>
@@ -3066,7 +3069,7 @@
         <v>24.35</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43964</v>
       </c>
@@ -3095,7 +3098,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43965</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>23.73</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43966</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>23.48</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43969</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>25.04</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43970</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43971</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>25.93</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43972</v>
       </c>
@@ -3269,7 +3272,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43973</v>
       </c>
@@ -3298,7 +3301,7 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43977</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43978</v>
       </c>
@@ -3356,7 +3359,7 @@
         <v>28.09</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43979</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43980</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43983</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>28.12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43984</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43985</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>30.07</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43986</v>
       </c>
@@ -3530,7 +3533,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43987</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43990</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43991</v>
       </c>
@@ -3617,7 +3620,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43992</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43993</v>
       </c>
@@ -3675,7 +3678,7 @@
         <v>28.04</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43994</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43997</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43998</v>
       </c>
@@ -3762,7 +3765,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43999</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44000</v>
       </c>
@@ -3820,7 +3823,7 @@
         <v>30.94</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44001</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44004</v>
       </c>
@@ -3878,7 +3881,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44005</v>
       </c>
@@ -3907,7 +3910,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44006</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44007</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44008</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>26.47</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44011</v>
       </c>
@@ -4023,7 +4026,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44012</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44013</v>
       </c>
@@ -4081,7 +4084,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44014</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44018</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44019</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>27.07</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44020</v>
       </c>
@@ -4197,7 +4200,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44021</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>28.17</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44022</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>28.25</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44025</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44026</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44027</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44028</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44029</v>
       </c>
@@ -4400,7 +4403,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44032</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>29.05</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44033</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44034</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44035</v>
       </c>
@@ -4516,7 +4519,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44036</v>
       </c>
@@ -4545,7 +4548,7 @@
         <v>28.71</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44039</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>29.15</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44040</v>
       </c>
@@ -4603,7 +4606,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44041</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44042</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44043</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>28.47</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44046</v>
       </c>
@@ -4719,7 +4722,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44047</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44048</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>28.23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44049</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44050</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>27.48</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44053</v>
       </c>
@@ -4864,7 +4867,7 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44054</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>26.96</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44055</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>27.29</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44056</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44057</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44060</v>
       </c>
@@ -5009,7 +5012,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44061</v>
       </c>
@@ -5038,7 +5041,7 @@
         <v>27.36</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44062</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44063</v>
       </c>
@@ -5096,7 +5099,7 @@
         <v>26.39</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44064</v>
       </c>
@@ -5125,7 +5128,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44067</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44068</v>
       </c>
@@ -5183,7 +5186,7 @@
         <v>26.38</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44069</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>26.94</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44070</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44071</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>26.07</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44074</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44075</v>
       </c>
@@ -5328,7 +5331,7 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44076</v>
       </c>
@@ -5357,7 +5360,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44077</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44078</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44082</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44083</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>25.61</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44084</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44085</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44088</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>25.53</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44089</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>25.81</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44090</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44091</v>
       </c>
@@ -5647,7 +5650,7 @@
         <v>24.89</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44092</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>24.73</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44095</v>
       </c>
@@ -5705,7 +5708,7 @@
         <v>24.53</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44096</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44097</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>24.07</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44098</v>
       </c>
@@ -5792,7 +5795,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44099</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44102</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>24.74</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44103</v>
       </c>
@@ -5879,7 +5882,7 @@
         <v>24.61</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44104</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44105</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>24.88</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44106</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44109</v>
       </c>
@@ -5995,7 +5998,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44110</v>
       </c>
@@ -6024,7 +6027,7 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44111</v>
       </c>
@@ -6053,7 +6056,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44112</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44113</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44116</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>26.89</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44117</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>26.77</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44118</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44119</v>
       </c>
@@ -6227,7 +6230,7 @@
         <v>27.27</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44120</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44123</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44124</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44125</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44126</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44127</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>27.46</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44130</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44131</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44132</v>
       </c>
@@ -6488,7 +6491,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44133</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44134</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>24.92</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44137</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>25.39</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44138</v>
       </c>
@@ -6604,7 +6607,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44139</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>26.47</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44140</v>
       </c>
@@ -6662,7 +6665,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44141</v>
       </c>
@@ -6691,7 +6694,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44144</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44145</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>27.99</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44146</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44147</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44148</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44151</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>28.45</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44152</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44153</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44154</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44155</v>
       </c>
@@ -6981,7 +6984,7 @@
         <v>27.94</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44158</v>
       </c>
@@ -7010,7 +7013,7 @@
         <v>27.76</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44159</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44160</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44162</v>
       </c>
@@ -7097,7 +7100,7 @@
         <v>28.63</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44165</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44166</v>
       </c>
@@ -7155,7 +7158,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44167</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>28.86</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44168</v>
       </c>
@@ -7213,7 +7216,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44169</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44172</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44173</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44174</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44175</v>
       </c>
@@ -7358,7 +7361,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44176</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44179</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44180</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44181</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44182</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>31.15</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44183</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>30.85</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44186</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>30.84</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44187</v>
       </c>
@@ -7590,7 +7593,7 @@
         <v>30.98</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44188</v>
       </c>
@@ -7619,7 +7622,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44189</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44193</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44194</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>31.26</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44195</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44196</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44200</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44201</v>
       </c>
@@ -7822,7 +7825,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44202</v>
       </c>
@@ -7851,7 +7854,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44203</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>31.47</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44204</v>
       </c>
@@ -7909,7 +7912,7 @@
         <v>32.159999999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44207</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>32.61</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44208</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44209</v>
       </c>
@@ -7996,7 +7999,7 @@
         <v>33.159999999999997</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44210</v>
       </c>
@@ -8025,7 +8028,7 @@
         <v>33.76</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44211</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44215</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>34.28</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44216</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>34.515000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44217</v>
       </c>
@@ -8141,7 +8144,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44218</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44221</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44222</v>
       </c>
@@ -8228,7 +8231,7 @@
         <v>32.409999999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44223</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44224</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>32.83</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44225</v>
       </c>
@@ -8315,7 +8318,7 @@
         <v>32.270000000000003</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44228</v>
       </c>
@@ -8344,7 +8347,7 @@
         <v>32.71</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44229</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44230</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>33.71</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44231</v>
       </c>
@@ -8431,7 +8434,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44232</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44235</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>36.61</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44236</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44237</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v>37.409999999999997</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44238</v>
       </c>
@@ -8576,7 +8579,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44239</v>
       </c>
@@ -8605,7 +8608,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44243</v>
       </c>
@@ -8634,7 +8637,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44244</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>36.549999999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44245</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>36.08</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44246</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44249</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>36.159999999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44250</v>
       </c>
@@ -8779,7 +8782,7 @@
         <v>36.229999999999997</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44251</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44252</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>34.47</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44253</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>34.25</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44256</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>35.14</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44257</v>
       </c>
@@ -8924,7 +8927,7 @@
         <v>35.369999999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44258</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>35.130000000000003</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44259</v>
       </c>
@@ -8982,7 +8985,7 @@
         <v>35.03</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44260</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>34.549999999999997</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44263</v>
       </c>
@@ -9040,7 +9043,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44264</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>35.89</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44265</v>
       </c>
@@ -9098,7 +9101,7 @@
         <v>36.33</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44266</v>
       </c>
@@ -9127,7 +9130,7 @@
         <v>36.784999999999997</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44267</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>36.56</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44270</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>37.344999999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44271</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>37.159999999999997</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44272</v>
       </c>
@@ -9243,7 +9246,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44273</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>36.369999999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44274</v>
       </c>
@@ -9301,7 +9304,7 @@
         <v>36.479999999999997</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44277</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>37.020000000000003</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44278</v>
       </c>
@@ -9359,7 +9362,7 @@
         <v>36.69</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44279</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44280</v>
       </c>
@@ -9417,7 +9420,7 @@
         <v>36.85</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44281</v>
       </c>
@@ -9446,7 +9449,7 @@
         <v>36.79</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44284</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>36.39</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44285</v>
       </c>
@@ -9504,7 +9507,7 @@
         <v>37.11</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44286</v>
       </c>
@@ -9533,7 +9536,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44287</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>37.39</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44291</v>
       </c>
@@ -9591,7 +9594,7 @@
         <v>37.520000000000003</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44292</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44293</v>
       </c>
@@ -9649,7 +9652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44294</v>
       </c>
@@ -9678,7 +9681,7 @@
         <v>37.950000000000003</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44295</v>
       </c>
@@ -9707,7 +9710,7 @@
         <v>38.01</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44298</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44299</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>38.414999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44300</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>38.99</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44301</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>39.034999999999997</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44302</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44305</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>39.835000000000001</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44306</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>39.28</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44307</v>
       </c>
@@ -9939,7 +9942,7 @@
         <v>39.71</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44308</v>
       </c>
@@ -9968,7 +9971,7 @@
         <v>40.229999999999997</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44309</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>41.53</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44312</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>41.58</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44313</v>
       </c>
@@ -10055,7 +10058,7 @@
         <v>42.034999999999997</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44314</v>
       </c>
@@ -10084,7 +10087,7 @@
         <v>42.52</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44315</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>42.375</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44316</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>42.66</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44319</v>
       </c>
@@ -10171,7 +10174,7 @@
         <v>43.38</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44320</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44321</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>44.14</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44322</v>
       </c>
@@ -10258,7 +10261,7 @@
         <v>44.81</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44323</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>44.98</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44326</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>44.51</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44327</v>
       </c>
@@ -10345,7 +10348,7 @@
         <v>43.36</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44328</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44329</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>42.45</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44330</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>43.51</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44333</v>
       </c>
@@ -10461,7 +10464,7 @@
         <v>43.12</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44334</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44335</v>
       </c>
@@ -10519,7 +10522,7 @@
         <v>42.04</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44336</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>42.26</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44337</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>42.46</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44340</v>
       </c>
@@ -10606,7 +10609,7 @@
         <v>42.76</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44341</v>
       </c>
@@ -10635,7 +10638,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44342</v>
       </c>
@@ -10664,7 +10667,7 @@
         <v>43.12</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44343</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>43.13</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44344</v>
       </c>
@@ -10722,7 +10725,7 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44348</v>
       </c>
@@ -10751,7 +10754,7 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44349</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>43.15</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44350</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44351</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>43.32</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44354</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>43.49</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44355</v>
       </c>
@@ -10896,7 +10899,7 @@
         <v>44.35</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44356</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>43.74</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44357</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>44.01</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44358</v>
       </c>
@@ -10983,7 +10986,7 @@
         <v>44.18</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44361</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>43.53</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44362</v>
       </c>
@@ -11041,7 +11044,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44363</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>45.06</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44364</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44365</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>44.14</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44368</v>
       </c>
@@ -11157,7 +11160,7 @@
         <v>45.15</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44369</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>45.53</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44370</v>
       </c>
@@ -11215,7 +11218,7 @@
         <v>46.27</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44371</v>
       </c>
@@ -11244,7 +11247,7 @@
         <v>46.29</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44372</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>46.98</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44375</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>46.83</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44376</v>
       </c>
@@ -11331,7 +11334,7 @@
         <v>46.82</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44377</v>
       </c>
@@ -11360,7 +11363,7 @@
         <v>46.48</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44378</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>46.55</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44379</v>
       </c>
@@ -11418,7 +11421,7 @@
         <v>46.79</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44383</v>
       </c>
@@ -11447,7 +11450,7 @@
         <v>47.45</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44384</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>48.29</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44385</v>
       </c>
@@ -11505,7 +11508,7 @@
         <v>47.12</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44386</v>
       </c>
@@ -11534,7 +11537,7 @@
         <v>47.71</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44389</v>
       </c>
@@ -11563,7 +11566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44390</v>
       </c>
@@ -11592,7 +11595,7 @@
         <v>46.54</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44391</v>
       </c>
@@ -11621,7 +11624,7 @@
         <v>45.72</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44392</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>45.49</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44393</v>
       </c>
@@ -11679,7 +11682,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44396</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>43.71</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44397</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>44.89</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44398</v>
       </c>
@@ -11766,7 +11769,7 @@
         <v>46.07</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44399</v>
       </c>
@@ -11795,7 +11798,7 @@
         <v>46.18</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44400</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>46.82</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44403</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>46.91</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44404</v>
       </c>
@@ -11882,7 +11885,7 @@
         <v>46.86</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44405</v>
       </c>
@@ -11911,7 +11914,7 @@
         <v>47.01</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44406</v>
       </c>
@@ -11940,7 +11943,7 @@
         <v>50.12</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44407</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>50.47</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44410</v>
       </c>
@@ -11998,7 +12001,7 @@
         <v>49.53</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44411</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>47.89</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44412</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>48.37</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44413</v>
       </c>
@@ -12085,7 +12088,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44414</v>
       </c>
@@ -12114,7 +12117,7 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44417</v>
       </c>
@@ -12143,7 +12146,7 @@
         <v>47.21</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44418</v>
       </c>
@@ -12172,7 +12175,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44419</v>
       </c>
@@ -12201,7 +12204,7 @@
         <v>47.55</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44420</v>
       </c>
@@ -12230,7 +12233,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44421</v>
       </c>
@@ -12259,7 +12262,7 @@
         <v>48.78</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44424</v>
       </c>
@@ -12288,7 +12291,7 @@
         <v>49.26</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44425</v>
       </c>
@@ -12317,7 +12320,7 @@
         <v>47.63</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44426</v>
       </c>
@@ -12346,7 +12349,7 @@
         <v>46.97</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44427</v>
       </c>
@@ -12375,7 +12378,7 @@
         <v>46.27</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44428</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>46.94</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44431</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>47.39</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44432</v>
       </c>
@@ -12462,7 +12465,7 @@
         <v>47.95</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44433</v>
       </c>
@@ -12491,7 +12494,7 @@
         <v>48.94</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44434</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>48.93</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44435</v>
       </c>
@@ -12549,7 +12552,7 @@
         <v>48.37</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44438</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>49.02</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44439</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>49.38</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44440</v>
       </c>
@@ -12636,7 +12639,7 @@
         <v>49.87</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44441</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44442</v>
       </c>
@@ -12694,7 +12697,7 @@
         <v>50.09</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44446</v>
       </c>
@@ -12723,7 +12726,7 @@
         <v>49.37</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44447</v>
       </c>
@@ -12752,7 +12755,7 @@
         <v>49.15</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44448</v>
       </c>
@@ -12781,7 +12784,7 @@
         <v>49.11</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44449</v>
       </c>
@@ -12810,7 +12813,7 @@
         <v>48.81</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44452</v>
       </c>
@@ -12839,7 +12842,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44453</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>49.12</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44454</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>50.54</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44455</v>
       </c>
@@ -12926,7 +12929,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44456</v>
       </c>
@@ -12955,7 +12958,7 @@
         <v>51.07</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44459</v>
       </c>
@@ -12984,7 +12987,7 @@
         <v>47.02</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44460</v>
       </c>
@@ -13013,7 +13016,7 @@
         <v>47.48</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44461</v>
       </c>
@@ -13042,7 +13045,7 @@
         <v>48.01</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44462</v>
       </c>
@@ -13071,7 +13074,7 @@
         <v>48.67</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44463</v>
       </c>
@@ -13100,7 +13103,7 @@
         <v>48.31</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44466</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v>48.34</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44467</v>
       </c>
@@ -13158,7 +13161,7 @@
         <v>46.86</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44468</v>
       </c>
@@ -13187,7 +13190,7 @@
         <v>47.39</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44469</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>44470</v>
       </c>
@@ -13245,7 +13248,7 @@
         <v>47.91</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>44473</v>
       </c>
@@ -13274,7 +13277,7 @@
         <v>46.55</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>44474</v>
       </c>
@@ -13303,7 +13306,7 @@
         <v>47.76</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>44475</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>44476</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>48.95</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>44477</v>
       </c>
@@ -13390,7 +13393,7 @@
         <v>49.42</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>44480</v>
       </c>
@@ -13419,7 +13422,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>44481</v>
       </c>
@@ -13448,7 +13451,7 @@
         <v>49.27</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44482</v>
       </c>
@@ -13477,7 +13480,7 @@
         <v>49.85</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>44483</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>51.29</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>44484</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>51.45</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>44487</v>
       </c>
@@ -13564,7 +13567,7 @@
         <v>51.88</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>44488</v>
       </c>
@@ -13593,7 +13596,7 @@
         <v>53.01</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>44489</v>
       </c>
@@ -13622,7 +13625,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>44490</v>
       </c>
@@ -13651,7 +13654,7 @@
         <v>54.39</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>44491</v>
       </c>
@@ -13680,7 +13683,7 @@
         <v>55.16</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>44494</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>55.63</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>44495</v>
       </c>
@@ -13738,7 +13741,7 @@
         <v>56.29</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>44496</v>
       </c>
@@ -13767,7 +13770,7 @@
         <v>55.12</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>44497</v>
       </c>
@@ -13796,7 +13799,7 @@
         <v>56.32</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>44498</v>
       </c>
@@ -13825,7 +13828,7 @@
         <v>56.15</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>44501</v>
       </c>
@@ -13854,7 +13857,7 @@
         <v>55.43</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>44502</v>
       </c>
@@ -13883,7 +13886,7 @@
         <v>55.32</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>44503</v>
       </c>
@@ -13912,7 +13915,7 @@
         <v>57.64</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>44504</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>58.95</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>44505</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>59.83</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>44508</v>
       </c>
@@ -13999,7 +14002,7 @@
         <v>58.7</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>44509</v>
       </c>
@@ -14028,7 +14031,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>44510</v>
       </c>
@@ -14057,7 +14060,7 @@
         <v>57.98</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>44511</v>
       </c>
@@ -14086,7 +14089,7 @@
         <v>58.94</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>44512</v>
       </c>
@@ -14115,7 +14118,7 @@
         <v>60.14</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>44515</v>
       </c>
@@ -14144,7 +14147,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>44516</v>
       </c>
@@ -14173,7 +14176,7 @@
         <v>59.56</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>44517</v>
       </c>
@@ -14202,7 +14205,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>44518</v>
       </c>
@@ -14231,7 +14234,7 @@
         <v>59.3</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>44519</v>
       </c>
@@ -14260,7 +14263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>44522</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>57.52</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>44523</v>
       </c>
@@ -14318,7 +14321,7 @@
         <v>56.49</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>44524</v>
       </c>
@@ -14347,7 +14350,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>44526</v>
       </c>
@@ -14376,7 +14379,7 @@
         <v>54.75</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>44529</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>56.8</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>44530</v>
       </c>
@@ -14434,7 +14437,7 @@
         <v>54.69</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44531</v>
       </c>
@@ -14463,7 +14466,7 @@
         <v>53.68</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>44532</v>
       </c>
@@ -14492,7 +14495,7 @@
         <v>55.21</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44533</v>
       </c>
@@ -14521,7 +14524,7 @@
         <v>53.17</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>44536</v>
       </c>
@@ -14550,7 +14553,7 @@
         <v>53.81</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>44537</v>
       </c>
@@ -14579,7 +14582,7 @@
         <v>54.63</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>44538</v>
       </c>
@@ -14608,7 +14611,7 @@
         <v>54.69</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>44539</v>
       </c>
@@ -14637,7 +14640,7 @@
         <v>53.93</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>44540</v>
       </c>
@@ -14666,7 +14669,7 @@
         <v>54.12</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>44543</v>
       </c>
@@ -14695,7 +14698,7 @@
         <v>52.98</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>44544</v>
       </c>
@@ -14724,7 +14727,7 @@
         <v>52.51</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>44545</v>
       </c>
@@ -14753,7 +14756,7 @@
         <v>53.03</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>44546</v>
       </c>
@@ -14782,7 +14785,7 @@
         <v>51.59</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>44547</v>
       </c>
@@ -14811,7 +14814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>44550</v>
       </c>
@@ -14840,7 +14843,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44551</v>
       </c>
@@ -14869,7 +14872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>44552</v>
       </c>
@@ -14898,7 +14901,7 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>44553</v>
       </c>
@@ -14927,7 +14930,7 @@
         <v>55.49</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>44557</v>
       </c>
@@ -14956,7 +14959,7 @@
         <v>56.15</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>44558</v>
       </c>
@@ -14985,7 +14988,7 @@
         <v>55.47</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>44559</v>
       </c>
@@ -15014,7 +15017,7 @@
         <v>54.37</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>44560</v>
       </c>
@@ -15043,7 +15046,7 @@
         <v>54.33</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>44561</v>
       </c>
@@ -15072,7 +15075,7 @@
         <v>54.9</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>44564</v>
       </c>
@@ -15101,7 +15104,7 @@
         <v>54.21</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>44565</v>
       </c>
@@ -15130,7 +15133,7 @@
         <v>55.57</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>44566</v>
       </c>
@@ -15159,7 +15162,7 @@
         <v>51.4</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>44567</v>
       </c>
@@ -15188,7 +15191,7 @@
         <v>51.46</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>44568</v>
       </c>
@@ -15217,7 +15220,7 @@
         <v>51.02</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>44571</v>
       </c>
@@ -15246,7 +15249,7 @@
         <v>50.14</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>44572</v>
       </c>
@@ -15275,7 +15278,7 @@
         <v>52.18</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>44573</v>
       </c>
@@ -15304,7 +15307,7 @@
         <v>52.75</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>44574</v>
       </c>
@@ -15333,7 +15336,7 @@
         <v>51.87</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>44575</v>
       </c>
@@ -15362,7 +15365,7 @@
         <v>51.19</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>44579</v>
       </c>
@@ -15391,7 +15394,7 @@
         <v>51.13</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>44580</v>
       </c>
@@ -15420,7 +15423,7 @@
         <v>50.59</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>44581</v>
       </c>
@@ -15449,7 +15452,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>44582</v>
       </c>
@@ -15478,7 +15481,7 @@
         <v>49.09</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>44585</v>
       </c>
@@ -15507,7 +15510,7 @@
         <v>48.04</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>44586</v>
       </c>
@@ -15536,7 +15539,7 @@
         <v>47.09</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>44587</v>
       </c>
@@ -15565,7 +15568,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>44588</v>
       </c>
@@ -15594,7 +15597,7 @@
         <v>46.95</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>44589</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>44592</v>
       </c>
@@ -15652,7 +15655,7 @@
         <v>51.05</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>44593</v>
       </c>
@@ -15681,7 +15684,7 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>44594</v>
       </c>
@@ -15710,7 +15713,7 @@
         <v>53.83</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44595</v>
       </c>
@@ -15739,7 +15742,7 @@
         <v>49.65</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44596</v>
       </c>
@@ -15768,7 +15771,7 @@
         <v>49.82</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44599</v>
       </c>
@@ -15797,7 +15800,7 @@
         <v>50.17</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44600</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>49.48</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44601</v>
       </c>
@@ -15855,7 +15858,7 @@
         <v>50.64</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44602</v>
       </c>
@@ -15884,7 +15887,7 @@
         <v>49.34</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44603</v>
       </c>
@@ -15913,7 +15916,7 @@
         <v>47.21</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44606</v>
       </c>
@@ -15942,7 +15945,7 @@
         <v>46.77</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44607</v>
       </c>
@@ -15971,7 +15974,7 @@
         <v>48.29</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44608</v>
       </c>
@@ -16000,7 +16003,7 @@
         <v>47.89</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44609</v>
       </c>
@@ -16029,7 +16032,7 @@
         <v>45.58</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44610</v>
       </c>
@@ -16058,7 +16061,7 @@
         <v>45.71</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44614</v>
       </c>
@@ -16087,7 +16090,7 @@
         <v>44.83</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44615</v>
       </c>
@@ -16116,7 +16119,7 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44616</v>
       </c>
@@ -16145,7 +16148,7 @@
         <v>45.34</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44617</v>
       </c>
@@ -16174,7 +16177,7 @@
         <v>47.14</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44620</v>
       </c>
@@ -16203,7 +16206,7 @@
         <v>46.87</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44621</v>
       </c>
@@ -16232,7 +16235,7 @@
         <v>45.05</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44622</v>
       </c>
@@ -16261,7 +16264,7 @@
         <v>47.42</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44623</v>
       </c>
@@ -16290,7 +16293,7 @@
         <v>46.16</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>44624</v>
       </c>
@@ -16319,7 +16322,7 @@
         <v>43.64</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>44627</v>
       </c>
@@ -16348,7 +16351,7 @@
         <v>40.590000000000003</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>44628</v>
       </c>
@@ -16377,7 +16380,7 @@
         <v>41.01</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>44629</v>
       </c>
@@ -16406,7 +16409,7 @@
         <v>43.47</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44630</v>
       </c>
@@ -16435,7 +16438,7 @@
         <v>42.74</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44631</v>
       </c>
@@ -16464,7 +16467,7 @@
         <v>42.47</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44634</v>
       </c>
@@ -16493,7 +16496,7 @@
         <v>41.77</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>44635</v>
       </c>
@@ -16522,7 +16525,7 @@
         <v>43.09</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>44636</v>
       </c>
@@ -16551,7 +16554,7 @@
         <v>45.47</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>44637</v>
       </c>
@@ -16580,7 +16583,7 @@
         <v>47.16</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44638</v>
       </c>
@@ -16609,7 +16612,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>44641</v>
       </c>
@@ -16638,7 +16641,7 @@
         <v>46.44</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>44642</v>
       </c>
@@ -16667,7 +16670,7 @@
         <v>46.92</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>44643</v>
       </c>
@@ -16696,7 +16699,7 @@
         <v>46.17</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>44644</v>
       </c>
@@ -16725,7 +16728,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>44645</v>
       </c>
@@ -16754,7 +16757,7 @@
         <v>46.28</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>44648</v>
       </c>
@@ -16783,7 +16786,7 @@
         <v>46.54</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>44649</v>
       </c>
@@ -16812,7 +16815,7 @@
         <v>48.07</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>44650</v>
       </c>
@@ -16841,7 +16844,7 @@
         <v>46.69</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>44651</v>
       </c>
@@ -16870,7 +16873,7 @@
         <v>48.91</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>44652</v>
       </c>
@@ -16899,7 +16902,7 @@
         <v>49.42</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>44655</v>
       </c>
@@ -16928,7 +16931,7 @@
         <v>49.26</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44656</v>
       </c>
@@ -16957,7 +16960,7 @@
         <v>46.84</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>44657</v>
       </c>
@@ -16986,7 +16989,7 @@
         <v>44.95</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>44658</v>
       </c>
@@ -17015,7 +17018,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>44659</v>
       </c>
@@ -17044,7 +17047,7 @@
         <v>44.26</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>44662</v>
       </c>
@@ -17073,7 +17076,7 @@
         <v>43.07</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>44663</v>
       </c>
@@ -17102,7 +17105,7 @@
         <v>42.68</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>44664</v>
       </c>
@@ -17131,7 +17134,7 @@
         <v>44.06</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>44665</v>
       </c>
@@ -17160,7 +17163,7 @@
         <v>42.72</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>44669</v>
       </c>
@@ -17189,7 +17192,7 @@
         <v>42.07</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>44670</v>
       </c>
@@ -17218,7 +17221,7 @@
         <v>43.95</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>44671</v>
       </c>
@@ -17247,7 +17250,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>44672</v>
       </c>
@@ -17276,7 +17279,7 @@
         <v>41.46</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44673</v>
       </c>
@@ -17305,7 +17308,7 @@
         <v>39.83</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>44676</v>
       </c>
@@ -17334,7 +17337,7 @@
         <v>40.65</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>44677</v>
       </c>
@@ -17363,7 +17366,7 @@
         <v>38.22</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>44678</v>
       </c>
@@ -17392,7 +17395,7 @@
         <v>38.57</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>44679</v>
       </c>
@@ -17421,7 +17424,7 @@
         <v>38.479999999999997</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>44680</v>
       </c>
@@ -17450,7 +17453,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>44683</v>
       </c>
@@ -17479,7 +17482,7 @@
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>44684</v>
       </c>
@@ -17508,7 +17511,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>44685</v>
       </c>
@@ -17537,7 +17540,7 @@
         <v>40.54</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>44686</v>
       </c>
@@ -17566,7 +17569,7 @@
         <v>38.39</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>44687</v>
       </c>
@@ -17595,7 +17598,7 @@
         <v>37.69</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>44690</v>
       </c>
@@ -17624,7 +17627,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44691</v>
       </c>
@@ -17653,7 +17656,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>44692</v>
       </c>
@@ -17682,7 +17685,7 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>44693</v>
       </c>
@@ -17711,7 +17714,7 @@
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44694</v>
       </c>
@@ -17740,7 +17743,7 @@
         <v>37.67</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44697</v>
       </c>
@@ -17769,7 +17772,7 @@
         <v>37.56</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44698</v>
       </c>
@@ -17798,7 +17801,7 @@
         <v>38.42</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44699</v>
       </c>
@@ -17827,7 +17830,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44700</v>
       </c>
@@ -17856,7 +17859,7 @@
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44701</v>
       </c>
@@ -17885,7 +17888,7 @@
         <v>36.74</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44704</v>
       </c>
@@ -17914,7 +17917,7 @@
         <v>36.68</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44705</v>
       </c>
@@ -17943,7 +17946,7 @@
         <v>35.83</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44706</v>
       </c>
@@ -17972,7 +17975,7 @@
         <v>36.51</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44707</v>
       </c>
@@ -18001,7 +18004,7 @@
         <v>38.58</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44708</v>
       </c>
@@ -18030,7 +18033,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44712</v>
       </c>
@@ -18059,7 +18062,7 @@
         <v>38.53</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44713</v>
       </c>
@@ -18088,7 +18091,7 @@
         <v>38.47</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44714</v>
       </c>
@@ -18117,7 +18120,7 @@
         <v>39.65</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44715</v>
       </c>
@@ -18146,7 +18149,7 @@
         <v>39.729999999999997</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44718</v>
       </c>
@@ -18175,7 +18178,7 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44719</v>
       </c>
@@ -18204,7 +18207,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44720</v>
       </c>
@@ -18233,7 +18236,7 @@
         <v>38.58</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44721</v>
       </c>
@@ -18262,7 +18265,7 @@
         <v>37.770000000000003</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44722</v>
       </c>
@@ -18291,7 +18294,7 @@
         <v>35.96</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44725</v>
       </c>
@@ -18320,7 +18323,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44726</v>
       </c>
@@ -18349,7 +18352,7 @@
         <v>33.19</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44727</v>
       </c>
@@ -18378,7 +18381,7 @@
         <v>34.409999999999997</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44728</v>
       </c>
@@ -18407,7 +18410,7 @@
         <v>31.64</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44729</v>
       </c>
@@ -18436,7 +18439,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44733</v>
       </c>
@@ -18465,7 +18468,7 @@
         <v>32.51</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44734</v>
       </c>
@@ -18494,7 +18497,7 @@
         <v>32.28</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44735</v>
       </c>
@@ -18523,7 +18526,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44736</v>
       </c>
@@ -18552,7 +18555,7 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44739</v>
       </c>
@@ -18581,7 +18584,7 @@
         <v>33.770000000000003</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44740</v>
       </c>
@@ -18610,7 +18613,7 @@
         <v>32.950000000000003</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44741</v>
       </c>
@@ -18639,7 +18642,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44742</v>
       </c>
@@ -18668,7 +18671,7 @@
         <v>31.66</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44743</v>
       </c>
@@ -18697,7 +18700,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44747</v>
       </c>
@@ -18726,7 +18729,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44748</v>
       </c>
@@ -18755,7 +18758,7 @@
         <v>31.69</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44749</v>
       </c>
@@ -18784,7 +18787,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44750</v>
       </c>
@@ -18813,7 +18816,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44753</v>
       </c>
@@ -18842,7 +18845,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44754</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44755</v>
       </c>
@@ -18900,7 +18903,7 @@
         <v>31.23</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44756</v>
       </c>
@@ -18929,7 +18932,7 @@
         <v>30.53</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44757</v>
       </c>
@@ -18958,7 +18961,7 @@
         <v>32.020000000000003</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44760</v>
       </c>
@@ -18987,7 +18990,7 @@
         <v>32.19</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44761</v>
       </c>
@@ -19016,7 +19019,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44762</v>
       </c>
@@ -19045,7 +19048,7 @@
         <v>34.49</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44763</v>
       </c>
@@ -19074,7 +19077,7 @@
         <v>35.07</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44764</v>
       </c>
@@ -19103,7 +19106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44767</v>
       </c>
@@ -19132,7 +19135,7 @@
         <v>35.130000000000003</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44768</v>
       </c>
@@ -19161,7 +19164,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44769</v>
       </c>
@@ -19190,7 +19193,7 @@
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44770</v>
       </c>
@@ -19219,7 +19222,7 @@
         <v>37.520000000000003</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44771</v>
       </c>
@@ -19248,7 +19251,7 @@
         <v>38.909999999999997</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44774</v>
       </c>
@@ -19277,7 +19280,7 @@
         <v>38.49</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44775</v>
       </c>
@@ -19306,7 +19309,7 @@
         <v>37.729999999999997</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44776</v>
       </c>
@@ -19335,7 +19338,7 @@
         <v>38.76</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44777</v>
       </c>
@@ -19364,7 +19367,7 @@
         <v>38.380000000000003</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44778</v>
       </c>
@@ -19393,7 +19396,7 @@
         <v>37.96</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44781</v>
       </c>
@@ -19422,7 +19425,7 @@
         <v>35.29</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44782</v>
       </c>
@@ -19451,7 +19454,7 @@
         <v>34.119999999999997</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44783</v>
       </c>
@@ -19480,7 +19483,7 @@
         <v>35.35</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44784</v>
       </c>
@@ -19509,7 +19512,7 @@
         <v>34.35</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44785</v>
       </c>
@@ -19538,7 +19541,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44788</v>
       </c>
@@ -19567,7 +19570,7 @@
         <v>35.619999999999997</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44789</v>
       </c>
@@ -19596,7 +19599,7 @@
         <v>35.78</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44790</v>
       </c>
@@ -19625,7 +19628,7 @@
         <v>34.229999999999997</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44791</v>
       </c>
@@ -19654,7 +19657,7 @@
         <v>34.630000000000003</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44792</v>
       </c>
@@ -19683,7 +19686,7 @@
         <v>33.56</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44795</v>
       </c>
@@ -19712,7 +19715,7 @@
         <v>32.869999999999997</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44796</v>
       </c>
@@ -19741,7 +19744,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44797</v>
       </c>
@@ -19770,7 +19773,7 @@
         <v>33.49</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44798</v>
       </c>
@@ -19799,7 +19802,7 @@
         <v>34.659999999999997</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44799</v>
       </c>
@@ -19828,7 +19831,7 @@
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44802</v>
       </c>
@@ -19857,7 +19860,7 @@
         <v>32.85</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44803</v>
       </c>
@@ -19886,7 +19889,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44804</v>
       </c>
@@ -19915,7 +19918,7 @@
         <v>32.53</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44805</v>
       </c>
@@ -19944,7 +19947,7 @@
         <v>32.659999999999997</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44806</v>
       </c>
@@ -19973,7 +19976,7 @@
         <v>32.26</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44810</v>
       </c>
@@ -20002,7 +20005,7 @@
         <v>31.66</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44811</v>
       </c>
@@ -20031,7 +20034,7 @@
         <v>32.33</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44812</v>
       </c>
@@ -20060,7 +20063,7 @@
         <v>32.549999999999997</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44813</v>
       </c>
@@ -20089,7 +20092,7 @@
         <v>33.07</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44816</v>
       </c>
@@ -20118,7 +20121,7 @@
         <v>33.409999999999997</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44817</v>
       </c>
@@ -20147,7 +20150,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44818</v>
       </c>
@@ -20176,7 +20179,7 @@
         <v>31.62</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44819</v>
       </c>
@@ -20205,7 +20208,7 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44820</v>
       </c>
@@ -20234,7 +20237,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44823</v>
       </c>
@@ -20263,7 +20266,7 @@
         <v>31.18</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44824</v>
       </c>
@@ -20292,7 +20295,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44825</v>
       </c>
@@ -20321,7 +20324,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44826</v>
       </c>
@@ -20350,7 +20353,7 @@
         <v>28.18</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44827</v>
       </c>
@@ -20379,7 +20382,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44830</v>
       </c>
@@ -20408,7 +20411,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44831</v>
       </c>
@@ -20437,7 +20440,7 @@
         <v>26.66</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44832</v>
       </c>
@@ -20466,7 +20469,7 @@
         <v>27.42</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44833</v>
       </c>
@@ -20495,7 +20498,7 @@
         <v>26.24</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44834</v>
       </c>
@@ -20524,7 +20527,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>44837</v>
       </c>
@@ -20553,7 +20556,7 @@
         <v>26.93</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>44838</v>
       </c>
@@ -20582,7 +20585,7 @@
         <v>28.34</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>44839</v>
       </c>
@@ -20611,7 +20614,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>44840</v>
       </c>
@@ -20640,7 +20643,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>44841</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>26.67</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>44844</v>
       </c>
@@ -20698,7 +20701,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44845</v>
       </c>
@@ -20727,7 +20730,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44846</v>
       </c>
@@ -20756,7 +20759,7 @@
         <v>25.78</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44847</v>
       </c>
@@ -20785,7 +20788,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44848</v>
       </c>
@@ -20814,7 +20817,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44851</v>
       </c>
@@ -20843,7 +20846,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44852</v>
       </c>
@@ -20872,7 +20875,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44853</v>
       </c>
@@ -20901,7 +20904,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44854</v>
       </c>
@@ -20930,7 +20933,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44855</v>
       </c>
@@ -20959,7 +20962,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44858</v>
       </c>
@@ -20988,7 +20991,7 @@
         <v>26.49</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44859</v>
       </c>
@@ -21017,7 +21020,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44860</v>
       </c>
@@ -21046,7 +21049,7 @@
         <v>28.06</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>44861</v>
       </c>
@@ -21075,7 +21078,7 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>44862</v>
       </c>
@@ -21104,7 +21107,7 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>44865</v>
       </c>
@@ -21133,7 +21136,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>44866</v>
       </c>
@@ -21162,7 +21165,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>44867</v>
       </c>
@@ -21191,7 +21194,7 @@
         <v>27.83</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>44868</v>
       </c>
@@ -21220,7 +21223,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>44869</v>
       </c>
@@ -21249,7 +21252,7 @@
         <v>27.94</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>44872</v>
       </c>
@@ -21278,7 +21281,7 @@
         <v>28.08</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>44873</v>
       </c>
@@ -21307,7 +21310,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>44874</v>
       </c>
@@ -21336,7 +21339,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>44875</v>
       </c>
@@ -21365,7 +21368,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>44876</v>
       </c>
@@ -21394,7 +21397,7 @@
         <v>30.18</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>44879</v>
       </c>
@@ -21423,7 +21426,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44880</v>
       </c>
@@ -21452,7 +21455,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>44881</v>
       </c>
@@ -21481,7 +21484,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>44882</v>
       </c>
@@ -21510,7 +21513,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>44883</v>
       </c>
@@ -21539,7 +21542,7 @@
         <v>28.29</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>44886</v>
       </c>
@@ -21568,7 +21571,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>44887</v>
       </c>
@@ -21597,7 +21600,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>44888</v>
       </c>
@@ -21626,7 +21629,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>44890</v>
       </c>
@@ -21655,7 +21658,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>44893</v>
       </c>
@@ -21684,7 +21687,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>44894</v>
       </c>
@@ -21713,7 +21716,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>44895</v>
       </c>
@@ -21742,7 +21745,7 @@
         <v>31.17</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>44896</v>
       </c>
@@ -21771,7 +21774,7 @@
         <v>31.76</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>44897</v>
       </c>
@@ -21800,7 +21803,7 @@
         <v>31.56</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>44900</v>
       </c>
@@ -21829,7 +21832,7 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>44901</v>
       </c>
@@ -21858,7 +21861,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>44902</v>
       </c>
@@ -21887,7 +21890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>44903</v>
       </c>
@@ -21916,7 +21919,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>44904</v>
       </c>
@@ -21945,7 +21948,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>44907</v>
       </c>
@@ -21974,7 +21977,7 @@
         <v>30.21</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>44908</v>
       </c>
@@ -22003,7 +22006,7 @@
         <v>31.12</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>44909</v>
       </c>
@@ -22032,7 +22035,7 @@
         <v>30.32</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>44910</v>
       </c>
@@ -22061,7 +22064,7 @@
         <v>29.88</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>44911</v>
       </c>
@@ -22090,7 +22093,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>44914</v>
       </c>
@@ -22119,7 +22122,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>44915</v>
       </c>
@@ -22148,7 +22151,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>44916</v>
       </c>
@@ -22177,7 +22180,7 @@
         <v>29.74</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>44917</v>
       </c>
@@ -22206,7 +22209,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>44918</v>
       </c>
@@ -22235,7 +22238,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>44922</v>
       </c>
@@ -22264,7 +22267,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>44923</v>
       </c>
@@ -22293,7 +22296,7 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>44924</v>
       </c>
@@ -22322,7 +22325,7 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>44925</v>
       </c>
@@ -22351,7 +22354,7 @@
         <v>29.84</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>44929</v>
       </c>
@@ -22380,7 +22383,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>44930</v>
       </c>
@@ -22409,7 +22412,7 @@
         <v>30.86</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>44931</v>
       </c>
@@ -22438,7 +22441,7 @@
         <v>30.13</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>44932</v>
       </c>
@@ -22467,7 +22470,7 @@
         <v>31.01</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>44935</v>
       </c>
@@ -22496,7 +22499,7 @@
         <v>32.450000000000003</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>44936</v>
       </c>
@@ -22525,7 +22528,7 @@
         <v>32.56</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>44937</v>
       </c>
@@ -22554,7 +22557,7 @@
         <v>33.07</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>44938</v>
       </c>
@@ -22583,7 +22586,7 @@
         <v>33.35</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>44939</v>
       </c>
@@ -22612,7 +22615,7 @@
         <v>33.53</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>44943</v>
       </c>
@@ -22641,7 +22644,7 @@
         <v>33.54</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>44944</v>
       </c>
@@ -22670,7 +22673,7 @@
         <v>33.549999999999997</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>44945</v>
       </c>
@@ -22699,7 +22702,7 @@
         <v>32.880000000000003</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>44946</v>
       </c>
@@ -22728,7 +22731,7 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>44949</v>
       </c>
@@ -22757,7 +22760,7 @@
         <v>34.590000000000003</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>44950</v>
       </c>
@@ -22786,7 +22789,7 @@
         <v>34.44</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>44951</v>
       </c>
@@ -22815,7 +22818,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>44952</v>
       </c>
@@ -22844,7 +22847,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>44953</v>
       </c>
@@ -22873,7 +22876,7 @@
         <v>35.43</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>44956</v>
       </c>
@@ -22902,7 +22905,7 @@
         <v>35.159999999999997</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>44957</v>
       </c>
@@ -22931,7 +22934,7 @@
         <v>35.97</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>44958</v>
       </c>
@@ -22960,7 +22963,7 @@
         <v>36.46</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>44959</v>
       </c>
@@ -22989,7 +22992,7 @@
         <v>37.76</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>44960</v>
       </c>
@@ -23018,7 +23021,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>44963</v>
       </c>
@@ -23047,7 +23050,7 @@
         <v>36.31</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>44964</v>
       </c>
@@ -23076,7 +23079,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>44965</v>
       </c>
@@ -23105,7 +23108,7 @@
         <v>35.549999999999997</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>44966</v>
       </c>
@@ -23134,7 +23137,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>44967</v>
       </c>
@@ -23163,7 +23166,7 @@
         <v>34.64</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>44970</v>
       </c>
@@ -23192,7 +23195,7 @@
         <v>35.39</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>44971</v>
       </c>
@@ -23221,7 +23224,7 @@
         <v>35.33</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>44972</v>
       </c>
@@ -23250,7 +23253,7 @@
         <v>35.44</v>
       </c>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>44973</v>
       </c>
@@ -23279,7 +23282,7 @@
         <v>34.81</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>44974</v>
       </c>
@@ -23308,7 +23311,7 @@
         <v>35.04</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>44978</v>
       </c>
@@ -23337,7 +23340,7 @@
         <v>34.049999999999997</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>44979</v>
       </c>
@@ -23366,7 +23369,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>44980</v>
       </c>
@@ -23395,7 +23398,7 @@
         <v>34.85</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>44981</v>
       </c>
@@ -23424,7 +23427,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>44984</v>
       </c>
@@ -23453,7 +23456,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>44985</v>
       </c>
@@ -23482,7 +23485,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>44986</v>
       </c>
@@ -23511,7 +23514,7 @@
         <v>34.42</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>44987</v>
       </c>
@@ -23540,7 +23543,7 @@
         <v>34.479999999999997</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>44988</v>
       </c>
@@ -23569,7 +23572,7 @@
         <v>35.520000000000003</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>44991</v>
       </c>
@@ -23598,7 +23601,7 @@
         <v>35.21</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>44992</v>
       </c>
@@ -23627,7 +23630,7 @@
         <v>34.08</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>44993</v>
       </c>
@@ -23656,7 +23659,7 @@
         <v>34.64</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>44994</v>
       </c>
@@ -23685,7 +23688,7 @@
         <v>33.17</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>44995</v>
       </c>
@@ -23714,7 +23717,7 @@
         <v>30.26</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>44998</v>
       </c>
@@ -23743,7 +23746,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>44999</v>
       </c>
@@ -23772,7 +23775,7 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>45000</v>
       </c>
@@ -23801,7 +23804,7 @@
         <v>30.59</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>45001</v>
       </c>
@@ -23830,7 +23833,7 @@
         <v>30.86</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>45002</v>
       </c>
@@ -23859,7 +23862,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>45005</v>
       </c>
@@ -23888,7 +23891,7 @@
         <v>30.29</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>45006</v>
       </c>
@@ -23917,7 +23920,7 @@
         <v>31.71</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>45007</v>
       </c>
@@ -23946,7 +23949,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>45008</v>
       </c>
@@ -23975,7 +23978,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>45009</v>
       </c>
@@ -24004,7 +24007,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>45012</v>
       </c>
@@ -24033,7 +24036,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>45013</v>
       </c>
@@ -24062,7 +24065,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>45014</v>
       </c>
@@ -24091,7 +24094,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>45015</v>
       </c>
@@ -24120,7 +24123,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>45016</v>
       </c>
@@ -24149,7 +24152,7 @@
         <v>31.06</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>45019</v>
       </c>
@@ -24178,7 +24181,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>45020</v>
       </c>
@@ -24207,7 +24210,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>45021</v>
       </c>
@@ -24236,7 +24239,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>45022</v>
       </c>
@@ -24265,7 +24268,7 @@
         <v>29.22</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>45026</v>
       </c>
@@ -24294,7 +24297,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>45027</v>
       </c>
@@ -24323,7 +24326,7 @@
         <v>30.11</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>45028</v>
       </c>
@@ -24352,7 +24355,7 @@
         <v>29.73</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>45029</v>
       </c>
@@ -24381,7 +24384,7 @@
         <v>30.72</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>45030</v>
       </c>
@@ -24410,7 +24413,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>45033</v>
       </c>
@@ -24439,7 +24442,7 @@
         <v>30.81</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>45034</v>
       </c>
@@ -24468,7 +24471,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>45035</v>
       </c>
@@ -24497,7 +24500,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>45036</v>
       </c>
@@ -24526,7 +24529,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>45037</v>
       </c>
@@ -24555,7 +24558,7 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>45040</v>
       </c>
@@ -24584,7 +24587,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>45041</v>
       </c>
@@ -24613,7 +24616,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>45042</v>
       </c>
@@ -24642,7 +24645,7 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>45043</v>
       </c>
@@ -24671,7 +24674,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>45044</v>
       </c>
@@ -24700,7 +24703,7 @@
         <v>30.33</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>45047</v>
       </c>
@@ -24726,7 +24729,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>45048</v>
       </c>
@@ -24752,7 +24755,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>45049</v>
       </c>
@@ -24778,7 +24781,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>45050</v>
       </c>
@@ -24804,7 +24807,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>45051</v>
       </c>
@@ -24830,7 +24833,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>45054</v>
       </c>
@@ -24856,7 +24859,7 @@
         <v>26.12</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>45055</v>
       </c>
@@ -24882,7 +24885,7 @@
         <v>26.03</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>45056</v>
       </c>
@@ -24908,7 +24911,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>45057</v>
       </c>
@@ -24934,7 +24937,7 @@
         <v>26.414999999999999</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>45058</v>
       </c>
@@ -24960,7 +24963,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>45061</v>
       </c>
@@ -24986,7 +24989,7 @@
         <v>26.78</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>45062</v>
       </c>
@@ -25012,7 +25015,7 @@
         <v>26.3</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>45063</v>
       </c>
@@ -25038,7 +25041,7 @@
         <v>27.05</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>45064</v>
       </c>
@@ -25064,7 +25067,7 @@
         <v>27.33</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>45065</v>
       </c>
@@ -25090,7 +25093,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>45068</v>
       </c>
@@ -25116,7 +25119,7 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>45069</v>
       </c>
@@ -25142,7 +25145,7 @@
         <v>27.87</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>45070</v>
       </c>
@@ -25168,7 +25171,7 @@
         <v>27.59</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>45071</v>
       </c>
@@ -25194,7 +25197,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>45072</v>
       </c>
@@ -25220,7 +25223,7 @@
         <v>27.95</v>
       </c>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>45076</v>
       </c>
@@ -25246,7 +25249,7 @@
         <v>28.15</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>45077</v>
       </c>
@@ -25272,7 +25275,7 @@
         <v>27.41</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>45078</v>
       </c>
@@ -25298,7 +25301,7 @@
         <v>28.09</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>45079</v>
       </c>
@@ -25324,7 +25327,7 @@
         <v>28.79</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>45082</v>
       </c>
@@ -25350,7 +25353,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>45083</v>
       </c>
@@ -25376,7 +25379,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>45084</v>
       </c>
@@ -25402,7 +25405,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>45085</v>
       </c>
@@ -25428,7 +25431,7 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>45086</v>
       </c>
@@ -25454,7 +25457,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>45089</v>
       </c>
@@ -25480,7 +25483,7 @@
         <v>30.32</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>45090</v>
       </c>
@@ -25506,7 +25509,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>45091</v>
       </c>
@@ -25532,7 +25535,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>45092</v>
       </c>
@@ -25558,7 +25561,7 @@
         <v>31.61</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>45093</v>
       </c>
@@ -25584,7 +25587,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>45097</v>
       </c>
@@ -25610,7 +25613,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>45098</v>
       </c>
@@ -25636,7 +25639,7 @@
         <v>30.87</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>45099</v>
       </c>
@@ -25662,7 +25665,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>45100</v>
       </c>
@@ -25688,7 +25691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>45103</v>
       </c>
@@ -25714,7 +25717,7 @@
         <v>30.41</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>45104</v>
       </c>
@@ -25740,7 +25743,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>45105</v>
       </c>
@@ -25766,7 +25769,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>45106</v>
       </c>
@@ -25792,7 +25795,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>45107</v>
       </c>
@@ -25818,7 +25821,7 @@
         <v>31.95</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>45110</v>
       </c>
@@ -25844,7 +25847,7 @@
         <v>32.36</v>
       </c>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>45112</v>
       </c>
@@ -25870,7 +25873,7 @@
         <v>31.78</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>45113</v>
       </c>
@@ -25896,7 +25899,7 @@
         <v>31.21</v>
       </c>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>45114</v>
       </c>
@@ -25922,7 +25925,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>45117</v>
       </c>
@@ -25948,7 +25951,7 @@
         <v>31.94</v>
       </c>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>45118</v>
       </c>
@@ -25974,7 +25977,7 @@
         <v>32.39</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>45119</v>
       </c>
@@ -26000,7 +26003,7 @@
         <v>33.07</v>
       </c>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>45120</v>
       </c>
@@ -26026,7 +26029,7 @@
         <v>34.39</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>45121</v>
       </c>
@@ -26052,7 +26055,7 @@
         <v>34.07</v>
       </c>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>45124</v>
       </c>
@@ -26078,7 +26081,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>45125</v>
       </c>
@@ -26104,7 +26107,7 @@
         <v>34.83</v>
       </c>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>45126</v>
       </c>
@@ -26130,7 +26133,7 @@
         <v>35.71</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>45127</v>
       </c>
@@ -26156,7 +26159,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>45128</v>
       </c>
@@ -26182,7 +26185,7 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>45131</v>
       </c>
@@ -26208,7 +26211,7 @@
         <v>34.51</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>45132</v>
       </c>
@@ -26234,7 +26237,7 @@
         <v>34.82</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>45133</v>
       </c>
@@ -26260,7 +26263,7 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>45134</v>
       </c>
@@ -26286,7 +26289,7 @@
         <v>34.29</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>45135</v>
       </c>
@@ -26312,7 +26315,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>45138</v>
       </c>
@@ -26338,7 +26341,7 @@
         <v>35.65</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>45139</v>
       </c>
@@ -26364,7 +26367,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>45140</v>
       </c>
@@ -26390,7 +26393,7 @@
         <v>32.909999999999997</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>45141</v>
       </c>
@@ -26416,7 +26419,7 @@
         <v>31.66</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>45142</v>
       </c>
@@ -26442,7 +26445,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>45145</v>
       </c>
@@ -26468,7 +26471,7 @@
         <v>32.92</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>45146</v>
       </c>
@@ -26494,7 +26497,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>45147</v>
       </c>
@@ -26520,7 +26523,7 @@
         <v>31.82</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>45148</v>
       </c>
@@ -26546,7 +26549,7 @@
         <v>32.08</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>45149</v>
       </c>
@@ -26572,7 +26575,7 @@
         <v>31.99</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>45152</v>
       </c>
@@ -26598,7 +26601,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>45153</v>
       </c>
@@ -26624,7 +26627,7 @@
         <v>30.43</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>45154</v>
       </c>
@@ -26650,7 +26653,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>45155</v>
       </c>
@@ -26676,7 +26679,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>45156</v>
       </c>
@@ -26702,7 +26705,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>45159</v>
       </c>
@@ -26728,7 +26731,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>45160</v>
       </c>
@@ -26754,7 +26757,7 @@
         <v>29.13</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>45161</v>
       </c>
@@ -26780,7 +26783,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>45162</v>
       </c>
@@ -26806,7 +26809,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>45163</v>
       </c>
@@ -26832,7 +26835,7 @@
         <v>29.98</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>45166</v>
       </c>
@@ -26858,7 +26861,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>45167</v>
       </c>
@@ -26884,7 +26887,7 @@
         <v>31.58</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>45168</v>
       </c>
@@ -26910,7 +26913,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>45169</v>
       </c>
@@ -26936,7 +26939,7 @@
         <v>32.35</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>45170</v>
       </c>
@@ -26962,7 +26965,7 @@
         <v>32.67</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>45174</v>
       </c>
@@ -26988,7 +26991,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>45175</v>
       </c>
@@ -27014,7 +27017,7 @@
         <v>32.32</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>45176</v>
       </c>
@@ -27040,7 +27043,7 @@
         <v>32.06</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>45177</v>
       </c>
@@ -27066,7 +27069,7 @@
         <v>32.35</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>45180</v>
       </c>
@@ -27092,7 +27095,7 @@
         <v>32.380000000000003</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>45181</v>
       </c>
@@ -27118,7 +27121,7 @@
         <v>32.86</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>45182</v>
       </c>
@@ -27144,7 +27147,7 @@
         <v>32.159999999999997</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>45183</v>
       </c>
@@ -27170,7 +27173,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>45184</v>
       </c>
@@ -27196,7 +27199,7 @@
         <v>33.549999999999997</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>45187</v>
       </c>
@@ -27222,7 +27225,7 @@
         <v>32.979999999999997</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>45188</v>
       </c>
@@ -27248,7 +27251,7 @@
         <v>32.47</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>45189</v>
       </c>
@@ -27274,7 +27277,7 @@
         <v>31.97</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>45190</v>
       </c>
@@ -27300,7 +27303,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>45191</v>
       </c>
@@ -27326,7 +27329,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>45194</v>
       </c>
@@ -27352,7 +27355,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>45195</v>
       </c>
@@ -27378,7 +27381,7 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>45196</v>
       </c>
@@ -27404,7 +27407,7 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>45197</v>
       </c>
@@ -27430,7 +27433,7 @@
         <v>30.23</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>45198</v>
       </c>
@@ -27456,7 +27459,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="945" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>45201</v>
       </c>
@@ -27482,7 +27485,7 @@
         <v>30.06</v>
       </c>
     </row>
-    <row r="946" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>45202</v>
       </c>
@@ -27508,7 +27511,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="947" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>45203</v>
       </c>
@@ -27534,7 +27537,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="948" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>45204</v>
       </c>
@@ -27560,7 +27563,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="949" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>45205</v>
       </c>
@@ -27586,7 +27589,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="950" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>45208</v>
       </c>
@@ -27612,7 +27615,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="951" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>45209</v>
       </c>
@@ -27638,7 +27641,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="952" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>45210</v>
       </c>
@@ -27664,7 +27667,7 @@
         <v>30.41</v>
       </c>
     </row>
-    <row r="953" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>45211</v>
       </c>
@@ -27690,7 +27693,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="954" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>45212</v>
       </c>
@@ -27716,7 +27719,7 @@
         <v>29.24</v>
       </c>
     </row>
-    <row r="955" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>45215</v>
       </c>
@@ -27742,7 +27745,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="956" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>45216</v>
       </c>
@@ -27768,7 +27771,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="957" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>45217</v>
       </c>
@@ -27794,7 +27797,7 @@
         <v>28.94</v>
       </c>
     </row>
-    <row r="958" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>45218</v>
       </c>
@@ -27820,7 +27823,7 @@
         <v>27.54</v>
       </c>
     </row>
-    <row r="959" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>45219</v>
       </c>
@@ -27846,7 +27849,7 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="960" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>45222</v>
       </c>
@@ -27872,7 +27875,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="961" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>45223</v>
       </c>
@@ -27898,7 +27901,7 @@
         <v>28.26</v>
       </c>
     </row>
-    <row r="962" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>45224</v>
       </c>
@@ -27924,7 +27927,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="963" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>45225</v>
       </c>
@@ -27950,7 +27953,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="964" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>45226</v>
       </c>
@@ -27976,7 +27979,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="965" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>45229</v>
       </c>
@@ -28002,7 +28005,7 @@
         <v>27.81</v>
       </c>
     </row>
-    <row r="966" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>45230</v>
       </c>
@@ -28028,7 +28031,7 @@
         <v>27.54</v>
       </c>
     </row>
-    <row r="967" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>45231</v>
       </c>
@@ -28054,7 +28057,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="968" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>45232</v>
       </c>
@@ -28080,7 +28083,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="969" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>45233</v>
       </c>
@@ -28106,7 +28109,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="970" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>45236</v>
       </c>
@@ -28132,7 +28135,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="971" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>45237</v>
       </c>
@@ -28158,7 +28161,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="972" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>45238</v>
       </c>
@@ -28184,7 +28187,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="973" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>45239</v>
       </c>
@@ -28210,7 +28213,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="974" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>45240</v>
       </c>
@@ -28236,7 +28239,7 @@
         <v>30.16</v>
       </c>
     </row>
-    <row r="975" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>45243</v>
       </c>
@@ -28262,7 +28265,7 @@
         <v>30.01</v>
       </c>
     </row>
-    <row r="976" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>45244</v>
       </c>
@@ -28288,7 +28291,7 @@
         <v>31.81</v>
       </c>
     </row>
-    <row r="977" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>45245</v>
       </c>
@@ -28314,7 +28317,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="978" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>45246</v>
       </c>
@@ -28340,7 +28343,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="979" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>45247</v>
       </c>
@@ -28366,7 +28369,7 @@
         <v>31.85</v>
       </c>
     </row>
-    <row r="980" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>45250</v>
       </c>
@@ -28392,7 +28395,7 @@
         <v>31.88</v>
       </c>
     </row>
-    <row r="981" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>45251</v>
       </c>
@@ -28418,7 +28421,7 @@
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="982" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>45252</v>
       </c>
@@ -28444,7 +28447,7 @@
         <v>32.39</v>
       </c>
     </row>
-    <row r="983" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>45254</v>
       </c>
@@ -28470,7 +28473,7 @@
         <v>32.57</v>
       </c>
     </row>
-    <row r="984" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>45257</v>
       </c>
@@ -28496,7 +28499,7 @@
         <v>32.82</v>
       </c>
     </row>
-    <row r="985" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>45258</v>
       </c>
@@ -28522,7 +28525,7 @@
         <v>34.43</v>
       </c>
     </row>
-    <row r="986" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>45259</v>
       </c>
@@ -28548,7 +28551,7 @@
         <v>34.520000000000003</v>
       </c>
     </row>
-    <row r="987" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>45260</v>
       </c>
@@ -28574,7 +28577,7 @@
         <v>34.28</v>
       </c>
     </row>
-    <row r="988" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>45261</v>
       </c>
@@ -28600,7 +28603,7 @@
         <v>35.18</v>
       </c>
     </row>
-    <row r="989" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>45264</v>
       </c>
@@ -28626,7 +28629,7 @@
         <v>35.630000000000003</v>
       </c>
     </row>
-    <row r="990" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>45265</v>
       </c>
@@ -28652,7 +28655,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="991" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>45266</v>
       </c>
@@ -28678,7 +28681,7 @@
         <v>35.49</v>
       </c>
     </row>
-    <row r="992" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>45267</v>
       </c>
@@ -28704,7 +28707,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="993" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>45268</v>
       </c>
@@ -28730,7 +28733,7 @@
         <v>36.93</v>
       </c>
     </row>
-    <row r="994" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>45271</v>
       </c>
@@ -28756,7 +28759,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="995" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>45272</v>
       </c>
@@ -28782,7 +28785,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="996" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>45273</v>
       </c>
@@ -28808,7 +28811,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="997" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>45274</v>
       </c>
@@ -28834,7 +28837,7 @@
         <v>41.99</v>
       </c>
     </row>
-    <row r="998" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>45275</v>
       </c>
@@ -28860,7 +28863,7 @@
         <v>41.84</v>
       </c>
     </row>
-    <row r="999" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>45278</v>
       </c>
@@ -28886,7 +28889,7 @@
         <v>41.79</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>45279</v>
       </c>
@@ -28912,7 +28915,7 @@
         <v>41.47</v>
       </c>
     </row>
-    <row r="1001" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>45280</v>
       </c>
@@ -28938,7 +28941,7 @@
         <v>40.29</v>
       </c>
     </row>
-    <row r="1002" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>45281</v>
       </c>
@@ -28964,7 +28967,7 @@
         <v>40.909999999999997</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>45282</v>
       </c>
@@ -28990,7 +28993,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="1004" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>45286</v>
       </c>
@@ -29016,7 +29019,7 @@
         <v>40.880000000000003</v>
       </c>
     </row>
-    <row r="1005" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>45287</v>
       </c>
@@ -29042,7 +29045,7 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="1006" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>45288</v>
       </c>
@@ -29068,7 +29071,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="1007" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1007" s="1">
         <v>45289</v>
       </c>
@@ -29104,13 +29107,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D581F9-1A2C-48C1-90BB-660037AAA0B5}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="243" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -29121,7 +29124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29132,7 +29135,7 @@
         <v>0.38172200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -29143,7 +29146,7 @@
         <v>1.3757779999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -29154,7 +29157,7 @@
         <v>1.566594</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -29165,7 +29168,7 @@
         <v>0.83747199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
